--- a/FMEA_Spreadsheet.xlsx
+++ b/FMEA_Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\PSDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Dropbox\PSDM\Ann Arbor 岳鴻\A2PSDM.COM\2025 Home Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349BDB3-F44C-4F31-9A1F-8DB9711DF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CA2CB-73B8-4533-A743-C02548588ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree diagram &amp; P-Diagram" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="PFMEA Occurrence" sheetId="11" r:id="rId10"/>
     <sheet name="PFMEA Detection" sheetId="12" r:id="rId11"/>
     <sheet name="PFMEA AP" sheetId="13" r:id="rId12"/>
+    <sheet name="中文 CP" sheetId="14" r:id="rId13"/>
+    <sheet name="English CP" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="592">
   <si>
     <t>Company Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4972,42 +4974,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">New test method; not proven
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新的測試方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>未經證實</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Proven test method for verification of functionality or validation of performance, quality, reliability and durability; planned timing is later in the product development cycle such that test failures may result in production delays for re-design and/or re-tooling.
 </t>
     </r>
@@ -5885,6 +5851,415 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New test method; not proven
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新的測試方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未經證實</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制計畫</t>
+  </si>
+  <si>
+    <t>頁</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>原型樣件</t>
+  </si>
+  <si>
+    <t>試生產</t>
+  </si>
+  <si>
+    <t>生產</t>
+  </si>
+  <si>
+    <t>安全投產</t>
+  </si>
+  <si>
+    <t>(如果試生產或生產控制計畫中包含安全投產，請選中這兩個框)</t>
+  </si>
+  <si>
+    <t>CP-SW-001</t>
+  </si>
+  <si>
+    <t>高雄市楠梓區 / 07-1234567</t>
+  </si>
+  <si>
+    <t>SW-MOD-01</t>
+  </si>
+  <si>
+    <t>智慧手錶主模組</t>
+  </si>
+  <si>
+    <t>A2PSDM 高雄廠</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>零件/
+過程
+編號</t>
+  </si>
+  <si>
+    <t>過程名稱/
+操作說明</t>
+  </si>
+  <si>
+    <t>製造用
+機器/設備
+夾具/工裝</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>反應計畫</t>
+  </si>
+  <si>
+    <t>編號</t>
+  </si>
+  <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>過程</t>
+  </si>
+  <si>
+    <t>特殊
+特性
+分類</t>
+  </si>
+  <si>
+    <t>產品/過程
+規範/
+公差</t>
+  </si>
+  <si>
+    <t>評價/
+測量
+技術</t>
+  </si>
+  <si>
+    <t>抽樣</t>
+  </si>
+  <si>
+    <t>控制
+方法</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>責任人</t>
+  </si>
+  <si>
+    <t>樣本量</t>
+  </si>
+  <si>
+    <t>頻次</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>主板安裝</t>
+  </si>
+  <si>
+    <t>自動鎖螺絲機、點膠機</t>
+  </si>
+  <si>
+    <t>主板定位精度</t>
+  </si>
+  <si>
+    <t>關鍵</t>
+  </si>
+  <si>
+    <t>±0.1 mm</t>
+  </si>
+  <si>
+    <t>雷射定位</t>
+  </si>
+  <si>
+    <t>自動定位 + 人工確認</t>
+  </si>
+  <si>
+    <t>停機 + 重新校準</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>電池焊接</t>
+  </si>
+  <si>
+    <t>焊點完整性</t>
+  </si>
+  <si>
+    <t>無虛焊、無短路</t>
+  </si>
+  <si>
+    <t>X光檢測 + AOI</t>
+  </si>
+  <si>
+    <t>溫控焊接 + 自動檢測</t>
+  </si>
+  <si>
+    <t>報警 + 追溯批次</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>螢幕貼合</t>
+  </si>
+  <si>
+    <t>貼合位置偏差</t>
+  </si>
+  <si>
+    <t>次要</t>
+  </si>
+  <si>
+    <t>±0.2 mm</t>
+  </si>
+  <si>
+    <t>視覺檢測系統</t>
+  </si>
+  <si>
+    <t>自動貼合 + 壓力控制</t>
+  </si>
+  <si>
+    <t>調整貼合參數</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>外殼組裝</t>
+  </si>
+  <si>
+    <t>防水密封性</t>
+  </si>
+  <si>
+    <t>IP68標準</t>
+  </si>
+  <si>
+    <t>氣密測試</t>
+  </si>
+  <si>
+    <t>雙層密封圈 + 壓力測試</t>
+  </si>
+  <si>
+    <t>停機 + 換料</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>功能測試</t>
+  </si>
+  <si>
+    <t>螢幕觸控靈敏度</t>
+  </si>
+  <si>
+    <t>主要</t>
+  </si>
+  <si>
+    <t>≥ 95%</t>
+  </si>
+  <si>
+    <t>軟體測試工具</t>
+  </si>
+  <si>
+    <t>全檢</t>
+  </si>
+  <si>
+    <t>自動測試 + 人工覆核</t>
+  </si>
+  <si>
+    <t>軟體回報 + 分析原因</t>
+  </si>
+  <si>
+    <t>5/批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTROL PLAN</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Pre-Launch</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Safe Launch</t>
+  </si>
+  <si>
+    <t>(If Safe Launch is included in Pre-Launch or Production Control Plan, check both boxes)</t>
+  </si>
+  <si>
+    <t>Control Plan Number</t>
+  </si>
+  <si>
+    <t>Key Contact/Phone</t>
+  </si>
+  <si>
+    <t>Date (Orig.)</t>
+  </si>
+  <si>
+    <t>Date (Rev.)</t>
+  </si>
+  <si>
+    <t>Part Number/Latest Change Level</t>
+  </si>
+  <si>
+    <t>Supplier/Plant Approval/Date</t>
+  </si>
+  <si>
+    <t>Part Name/Description</t>
+  </si>
+  <si>
+    <t>Customer Engineering Approval/Date (If Req'd.)</t>
+  </si>
+  <si>
+    <t>Supplier/Plant</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>Customer Quality Approval/Date (If Req'd.)</t>
+  </si>
+  <si>
+    <t>Other Approval/Date (If Req'd.)</t>
+  </si>
+  <si>
+    <t>PART/
+PROCESS
+NUMBER</t>
+  </si>
+  <si>
+    <t>PROCESS NAME/
+OPERATION
+DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MACHINE,
+DEVICE,
+JIG, TOOLS
+FOR MFG.</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS</t>
+  </si>
+  <si>
+    <t>METHODS</t>
+  </si>
+  <si>
+    <t>REACTION PLAN</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>SPECIAL
+CHAR.
+CLASS</t>
+  </si>
+  <si>
+    <t>PRODUCT/PROCESS
+SPECIFICATION/
+TOLERANCE</t>
+  </si>
+  <si>
+    <t>EVALUATION/
+MEASUREMENT
+TECHNIQUE</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>CONTROL
+METHOD</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>OWNER/
+RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>FREQ.</t>
   </si>
 </sst>
 </file>
@@ -5894,7 +6269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="87">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6468,6 +6843,27 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -6827,12 +7223,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7145,6 +7542,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7331,15 +7734,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{5DFF6E41-EA01-4421-96FF-28FF086FA2A5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10968,20 +11443,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="41.4" customHeight="1">
       <c r="A1" s="40"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="153" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="42" t="s">
         <v>184</v>
       </c>
@@ -11022,13 +11497,13 @@
       <c r="A5" s="39">
         <v>9</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="158" t="s">
+      <c r="C5" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="160" t="s">
         <v>294</v>
       </c>
       <c r="E5" s="45"/>
@@ -11037,22 +11512,22 @@
       <c r="A6" s="39">
         <v>8</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" customHeight="1">
       <c r="A7" s="39">
         <v>7</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="160" t="s">
         <v>296</v>
       </c>
       <c r="E7" s="45"/>
@@ -11061,20 +11536,20 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="156"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5" ht="45.6" customHeight="1">
       <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="159" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="158" t="s">
+      <c r="C9" s="161"/>
+      <c r="D9" s="160" t="s">
         <v>298</v>
       </c>
       <c r="E9" s="45"/>
@@ -11083,9 +11558,9 @@
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="61.2" customHeight="1">
@@ -11095,10 +11570,10 @@
       <c r="B11" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="160" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="D11" s="160" t="s">
         <v>304</v>
       </c>
       <c r="E11" s="45"/>
@@ -11110,8 +11585,8 @@
       <c r="B12" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="168.6" customHeight="1">
@@ -11170,21 +11645,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="55.8" customHeight="1" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
     </row>
     <row r="2" spans="1:5" ht="60.6" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="42" t="s">
         <v>184</v>
       </c>
@@ -11210,7 +11685,7 @@
       <c r="A4" s="49">
         <v>10</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="162" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -11225,7 +11700,7 @@
       <c r="A5" s="52">
         <v>9</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="66" t="s">
         <v>322</v>
       </c>
@@ -11238,10 +11713,10 @@
       <c r="A6" s="52">
         <v>8</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="164" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="166" t="s">
         <v>323</v>
       </c>
       <c r="D6" s="66" t="s">
@@ -11253,8 +11728,8 @@
       <c r="A7" s="52">
         <v>7</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="66" t="s">
         <v>334</v>
       </c>
@@ -11264,10 +11739,10 @@
       <c r="A8" s="52">
         <v>6</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="166" t="s">
         <v>324</v>
       </c>
       <c r="D8" s="66" t="s">
@@ -11279,8 +11754,8 @@
       <c r="A9" s="57">
         <v>5</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="66" t="s">
         <v>330</v>
       </c>
@@ -11290,10 +11765,10 @@
       <c r="A10" s="52">
         <v>4</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="166" t="s">
         <v>325</v>
       </c>
       <c r="D10" s="66" t="s">
@@ -11305,8 +11780,8 @@
       <c r="A11" s="52">
         <v>3</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="111"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="66" t="s">
         <v>329</v>
       </c>
@@ -11316,7 +11791,7 @@
       <c r="A12" s="52">
         <v>2</v>
       </c>
-      <c r="B12" s="161"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="66" t="s">
         <v>326</v>
       </c>
@@ -11332,10 +11807,10 @@
       <c r="B13" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="167" t="s">
         <v>309</v>
       </c>
-      <c r="D13" s="121"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="66"/>
     </row>
   </sheetData>
@@ -11379,15 +11854,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="81.599999999999994" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="149" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="64" t="s">
         <v>310</v>
       </c>
@@ -11419,16 +11894,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="68" t="s">
@@ -11443,10 +11918,10 @@
       <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="68" t="s">
         <v>204</v>
       </c>
@@ -11459,10 +11934,10 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="68" t="s">
         <v>205</v>
       </c>
@@ -11475,10 +11950,10 @@
       <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="68" t="s">
         <v>206</v>
       </c>
@@ -11491,12 +11966,12 @@
       <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="152"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="149" t="s">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -11511,10 +11986,10 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="68" t="s">
         <v>204</v>
       </c>
@@ -11527,10 +12002,10 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="68" t="s">
         <v>205</v>
       </c>
@@ -11543,10 +12018,10 @@
       <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="68" t="s">
         <v>206</v>
       </c>
@@ -11559,12 +12034,12 @@
       <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E12" s="68" t="s">
@@ -11579,10 +12054,10 @@
       <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="68" t="s">
         <v>204</v>
       </c>
@@ -11595,10 +12070,10 @@
       <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="68" t="s">
         <v>205</v>
       </c>
@@ -11611,10 +12086,10 @@
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="152"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="68" t="s">
         <v>206</v>
       </c>
@@ -11627,12 +12102,12 @@
       <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="149" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E16" s="68" t="s">
@@ -11647,10 +12122,10 @@
       <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="68" t="s">
         <v>204</v>
       </c>
@@ -11663,10 +12138,10 @@
       <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="68" t="s">
         <v>205</v>
       </c>
@@ -11679,10 +12154,10 @@
       <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="68" t="s">
         <v>206</v>
       </c>
@@ -11695,8 +12170,8 @@
       <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="65" t="s">
         <v>211</v>
       </c>
@@ -11715,16 +12190,16 @@
       <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E21" s="68" t="s">
@@ -11739,10 +12214,10 @@
       <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="152"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="68" t="s">
         <v>204</v>
       </c>
@@ -11755,10 +12230,10 @@
       <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="152"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="68" t="s">
         <v>205</v>
       </c>
@@ -11771,10 +12246,10 @@
       <c r="H23" s="69"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="152"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="68" t="s">
         <v>206</v>
       </c>
@@ -11787,12 +12262,12 @@
       <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="152"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="149" t="s">
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="68" t="s">
@@ -11807,10 +12282,10 @@
       <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="152"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="68" t="s">
         <v>204</v>
       </c>
@@ -11823,10 +12298,10 @@
       <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="152"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
       <c r="E27" s="68" t="s">
         <v>205</v>
       </c>
@@ -11839,10 +12314,10 @@
       <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="152"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="68" t="s">
         <v>206</v>
       </c>
@@ -11855,12 +12330,12 @@
       <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="149" t="s">
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="149" t="s">
+      <c r="D29" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="68" t="s">
@@ -11875,10 +12350,10 @@
       <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="68" t="s">
         <v>204</v>
       </c>
@@ -11891,10 +12366,10 @@
       <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="68" t="s">
         <v>205</v>
       </c>
@@ -11907,10 +12382,10 @@
       <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
       <c r="E32" s="68" t="s">
         <v>206</v>
       </c>
@@ -11923,12 +12398,12 @@
       <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="152"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="149" t="s">
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E33" s="68" t="s">
@@ -11943,10 +12418,10 @@
       <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="152"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="68" t="s">
         <v>204</v>
       </c>
@@ -11959,10 +12434,10 @@
       <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
       <c r="E35" s="68" t="s">
         <v>205</v>
       </c>
@@ -11975,10 +12450,10 @@
       <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="152"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
       <c r="E36" s="68" t="s">
         <v>206</v>
       </c>
@@ -11991,8 +12466,8 @@
       <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="30">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="65" t="s">
         <v>211</v>
       </c>
@@ -12011,16 +12486,16 @@
       <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="149" t="s">
+      <c r="C38" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="149" t="s">
+      <c r="D38" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="68" t="s">
@@ -12035,10 +12510,10 @@
       <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="68" t="s">
         <v>204</v>
       </c>
@@ -12051,10 +12526,10 @@
       <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="152"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="68" t="s">
         <v>205</v>
       </c>
@@ -12067,10 +12542,10 @@
       <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="68" t="s">
         <v>206</v>
       </c>
@@ -12083,12 +12558,12 @@
       <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="149" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E42" s="68" t="s">
@@ -12103,10 +12578,10 @@
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="152"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="68" t="s">
         <v>204</v>
       </c>
@@ -12119,10 +12594,10 @@
       <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="68" t="s">
         <v>205</v>
       </c>
@@ -12135,10 +12610,10 @@
       <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="152"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
       <c r="E45" s="68" t="s">
         <v>206</v>
       </c>
@@ -12151,12 +12626,12 @@
       <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="149" t="s">
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="149" t="s">
+      <c r="D46" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="68" t="s">
@@ -12171,10 +12646,10 @@
       <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="152"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
       <c r="E47" s="68" t="s">
         <v>204</v>
       </c>
@@ -12187,10 +12662,10 @@
       <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="152"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="68" t="s">
         <v>205</v>
       </c>
@@ -12203,10 +12678,10 @@
       <c r="H48" s="69"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="152"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
       <c r="E49" s="68" t="s">
         <v>206</v>
       </c>
@@ -12219,12 +12694,12 @@
       <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="149" t="s">
+      <c r="A50" s="154"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E50" s="68" t="s">
@@ -12239,10 +12714,10 @@
       <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="68" t="s">
         <v>204</v>
       </c>
@@ -12255,10 +12730,10 @@
       <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="152"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="68" t="s">
         <v>205</v>
       </c>
@@ -12271,10 +12746,10 @@
       <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="152"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
       <c r="E53" s="68" t="s">
         <v>206</v>
       </c>
@@ -12287,8 +12762,8 @@
       <c r="H53" s="69"/>
     </row>
     <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="153"/>
-      <c r="B54" s="153"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="65" t="s">
         <v>211</v>
       </c>
@@ -12307,16 +12782,16 @@
       <c r="H54" s="69"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="C55" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="149" t="s">
+      <c r="D55" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="68" t="s">
@@ -12331,10 +12806,10 @@
       <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="152"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="68" t="s">
         <v>204</v>
       </c>
@@ -12347,10 +12822,10 @@
       <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="152"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="68" t="s">
         <v>205</v>
       </c>
@@ -12363,10 +12838,10 @@
       <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="152"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="150"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="68" t="s">
         <v>206</v>
       </c>
@@ -12379,12 +12854,12 @@
       <c r="H58" s="69"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="152"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="149" t="s">
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="149" t="s">
+      <c r="D59" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E59" s="68" t="s">
@@ -12399,10 +12874,10 @@
       <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="152"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="150"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
       <c r="E60" s="68" t="s">
         <v>204</v>
       </c>
@@ -12415,10 +12890,10 @@
       <c r="H60" s="69"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="152"/>
-      <c r="B61" s="152"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
       <c r="E61" s="68" t="s">
         <v>205</v>
       </c>
@@ -12431,10 +12906,10 @@
       <c r="H61" s="69"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="152"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="150"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="68" t="s">
         <v>206</v>
       </c>
@@ -12447,12 +12922,12 @@
       <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="152"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="149" t="s">
+      <c r="A63" s="154"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="149" t="s">
+      <c r="D63" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E63" s="68" t="s">
@@ -12467,10 +12942,10 @@
       <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="152"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="68" t="s">
         <v>204</v>
       </c>
@@ -12483,10 +12958,10 @@
       <c r="H64" s="69"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="150"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="68" t="s">
         <v>205</v>
       </c>
@@ -12499,10 +12974,10 @@
       <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="152"/>
       <c r="E66" s="68" t="s">
         <v>206</v>
       </c>
@@ -12515,12 +12990,12 @@
       <c r="H66" s="69"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="149" t="s">
+      <c r="A67" s="154"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="68" t="s">
@@ -12535,10 +13010,10 @@
       <c r="H67" s="69"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="152"/>
-      <c r="B68" s="152"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
       <c r="E68" s="68" t="s">
         <v>204</v>
       </c>
@@ -12551,10 +13026,10 @@
       <c r="H68" s="69"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="152"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="150"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
       <c r="E69" s="68" t="s">
         <v>205</v>
       </c>
@@ -12567,10 +13042,10 @@
       <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="150"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="68" t="s">
         <v>206</v>
       </c>
@@ -12583,8 +13058,8 @@
       <c r="H70" s="69"/>
     </row>
     <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="153"/>
-      <c r="B71" s="153"/>
+      <c r="A71" s="155"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="65" t="s">
         <v>211</v>
       </c>
@@ -12675,6 +13150,1147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFDBF2-0723-4A96-9D5F-68C872E2438E}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="2" max="3" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="180" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="182" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="181"/>
+      <c r="J1" s="178" t="s">
+        <v>480</v>
+      </c>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" customHeight="1">
+      <c r="A2" s="175" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="175" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="173" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" s="174"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="173" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="174"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="173" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="173" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="173" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="177" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="177" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="177" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="177" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="177" t="s">
+        <v>496</v>
+      </c>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="177" t="s">
+        <v>497</v>
+      </c>
+      <c r="N8" s="172"/>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="169" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="169" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="169" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="177" t="s">
+        <v>501</v>
+      </c>
+      <c r="H9" s="177" t="s">
+        <v>502</v>
+      </c>
+      <c r="I9" s="177" t="s">
+        <v>503</v>
+      </c>
+      <c r="J9" s="177" t="s">
+        <v>504</v>
+      </c>
+      <c r="K9" s="172"/>
+      <c r="L9" s="169" t="s">
+        <v>505</v>
+      </c>
+      <c r="M9" s="169" t="s">
+        <v>506</v>
+      </c>
+      <c r="N9" s="177" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="169"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169" t="s">
+        <v>508</v>
+      </c>
+      <c r="K10" s="169" t="s">
+        <v>509</v>
+      </c>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+    </row>
+    <row r="11" spans="1:14" ht="45">
+      <c r="A11" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="170" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" s="170" t="s">
+        <v>515</v>
+      </c>
+      <c r="I11" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" s="183" t="s">
+        <v>550</v>
+      </c>
+      <c r="K11" s="172"/>
+      <c r="L11" s="170" t="s">
+        <v>517</v>
+      </c>
+      <c r="M11" s="170" t="s">
+        <v>518</v>
+      </c>
+      <c r="N11" s="170"/>
+    </row>
+    <row r="12" spans="1:14" ht="45">
+      <c r="A12" s="170" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170" t="s">
+        <v>514</v>
+      </c>
+      <c r="H12" s="170" t="s">
+        <v>522</v>
+      </c>
+      <c r="I12" s="170" t="s">
+        <v>523</v>
+      </c>
+      <c r="J12" s="183" t="s">
+        <v>551</v>
+      </c>
+      <c r="K12" s="172"/>
+      <c r="L12" s="170" t="s">
+        <v>524</v>
+      </c>
+      <c r="M12" s="170" t="s">
+        <v>525</v>
+      </c>
+      <c r="N12" s="170"/>
+    </row>
+    <row r="13" spans="1:14" ht="45">
+      <c r="A13" s="170" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="I13" s="170" t="s">
+        <v>531</v>
+      </c>
+      <c r="J13" s="183" t="s">
+        <v>552</v>
+      </c>
+      <c r="K13" s="172"/>
+      <c r="L13" s="170" t="s">
+        <v>532</v>
+      </c>
+      <c r="M13" s="170" t="s">
+        <v>533</v>
+      </c>
+      <c r="N13" s="170"/>
+    </row>
+    <row r="14" spans="1:14" ht="45">
+      <c r="A14" s="170" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>535</v>
+      </c>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170" t="s">
+        <v>514</v>
+      </c>
+      <c r="H14" s="170" t="s">
+        <v>537</v>
+      </c>
+      <c r="I14" s="170" t="s">
+        <v>538</v>
+      </c>
+      <c r="J14" s="183" t="s">
+        <v>553</v>
+      </c>
+      <c r="K14" s="172"/>
+      <c r="L14" s="170" t="s">
+        <v>539</v>
+      </c>
+      <c r="M14" s="170" t="s">
+        <v>540</v>
+      </c>
+      <c r="N14" s="170"/>
+    </row>
+    <row r="15" spans="1:14" ht="45">
+      <c r="A15" s="170" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170" t="s">
+        <v>543</v>
+      </c>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>545</v>
+      </c>
+      <c r="I15" s="170" t="s">
+        <v>546</v>
+      </c>
+      <c r="J15" s="176" t="s">
+        <v>547</v>
+      </c>
+      <c r="K15" s="172"/>
+      <c r="L15" s="170" t="s">
+        <v>548</v>
+      </c>
+      <c r="M15" s="170" t="s">
+        <v>549</v>
+      </c>
+      <c r="N15" s="170"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="170"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="170"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="170"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="N9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CE03FC-97FE-4D45-AF4B-0ECF293017EB}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="187" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="187" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="187" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="187" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="187" customWidth="1"/>
+    <col min="7" max="7" width="13" style="187" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="187" customWidth="1"/>
+    <col min="9" max="9" width="16" style="187" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="187" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="187" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="187" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="187" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="187" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="187"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="185" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="H1" s="188" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="186"/>
+      <c r="J1" s="189" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="190" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="190" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" s="190" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="190" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="192" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="192" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="192" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="193"/>
+      <c r="I3" s="192" t="s">
+        <v>565</v>
+      </c>
+      <c r="J3" s="193"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="192" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="192" t="s">
+        <v>567</v>
+      </c>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="192" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="192" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="192" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" s="193"/>
+      <c r="C6" s="194" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="192" t="s">
+        <v>572</v>
+      </c>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="192" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="192" t="s">
+        <v>573</v>
+      </c>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1">
+      <c r="A8" s="195" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="195" t="s">
+        <v>575</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" s="195" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195" t="s">
+        <v>578</v>
+      </c>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195" t="s">
+        <v>579</v>
+      </c>
+      <c r="N8" s="195"/>
+    </row>
+    <row r="9" spans="1:14" ht="45">
+      <c r="A9" s="195"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" s="196" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="196" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9" s="196" t="s">
+        <v>583</v>
+      </c>
+      <c r="H9" s="196" t="s">
+        <v>584</v>
+      </c>
+      <c r="I9" s="196" t="s">
+        <v>585</v>
+      </c>
+      <c r="J9" s="195" t="s">
+        <v>586</v>
+      </c>
+      <c r="K9" s="193"/>
+      <c r="L9" s="196" t="s">
+        <v>587</v>
+      </c>
+      <c r="M9" s="196" t="s">
+        <v>588</v>
+      </c>
+      <c r="N9" s="196" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.95" customHeight="1">
+      <c r="A10" s="196"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196" t="s">
+        <v>590</v>
+      </c>
+      <c r="K10" s="196" t="s">
+        <v>591</v>
+      </c>
+      <c r="L10" s="196"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="196"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="197"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="197"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="197"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="197"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="197"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="197"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="197"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="197"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="197"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="197"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="197"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="197"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="197"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AD30"/>
@@ -12683,7 +14299,7 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="10" width="28.77734375" style="1" customWidth="1"/>
@@ -12713,7 +14329,7 @@
     </row>
     <row r="4" spans="1:30" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="3"/>
     </row>
@@ -12779,7 +14395,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
@@ -12792,49 +14408,49 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="47.4" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="104" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="104" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="134.4" thickBot="1">
+    <row r="11" spans="1:30" ht="127.2" thickBot="1">
       <c r="A11" s="28" t="s">
         <v>174</v>
       </c>
@@ -12943,10 +14559,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>74</v>
@@ -12955,7 +14571,7 @@
         <v>24</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K12" s="19">
         <v>9</v>
@@ -13009,10 +14625,10 @@
         <v>22</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>462</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>463</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>28</v>
@@ -13075,10 +14691,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>32</v>
@@ -13093,7 +14709,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M14" s="19">
         <v>4</v>
@@ -13157,7 +14773,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>40</v>
@@ -13301,7 +14917,7 @@
         <v>54</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K17" s="19">
         <v>9</v>
@@ -13364,10 +14980,10 @@
         <v>53</v>
       </c>
       <c r="I18" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>467</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>468</v>
       </c>
       <c r="K18" s="19">
         <v>9</v>
@@ -13528,7 +15144,7 @@
         <v>23</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>134</v>
@@ -13610,7 +15226,7 @@
         <v>92</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>134</v>
@@ -13685,7 +15301,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M22" s="19">
         <v>2</v>
@@ -13811,7 +15427,7 @@
         <v>84</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K24" s="19">
         <v>8</v>
@@ -13893,7 +15509,7 @@
         <v>85</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K25" s="19">
         <v>8</v>
@@ -13959,7 +15575,7 @@
         <v>137</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K26" s="19">
         <v>7</v>
@@ -14189,7 +15805,7 @@
         <v>361</v>
       </c>
       <c r="J29" s="90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K29" s="19">
         <v>8</v>
@@ -14258,8 +15874,8 @@
       <c r="E30" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F30" s="166" t="s">
-        <v>474</v>
+      <c r="F30" s="104" t="s">
+        <v>473</v>
       </c>
       <c r="G30" s="89" t="s">
         <v>366</v>
@@ -14356,19 +15972,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="41.4" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:4" ht="69.599999999999994">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="30" t="s">
         <v>177</v>
       </c>
@@ -14391,7 +16007,7 @@
       <c r="A4" s="33">
         <v>10</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="112" t="s">
         <v>403</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -14403,7 +16019,7 @@
       <c r="A5" s="36">
         <v>9</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="37" t="s">
         <v>399</v>
       </c>
@@ -14413,7 +16029,7 @@
       <c r="A6" s="38">
         <v>8</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="112" t="s">
         <v>404</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -14425,7 +16041,7 @@
       <c r="A7" s="30">
         <v>7</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="34" t="s">
         <v>408</v>
       </c>
@@ -14435,7 +16051,7 @@
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="112" t="s">
         <v>405</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -14447,7 +16063,7 @@
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="37" t="s">
         <v>410</v>
       </c>
@@ -14457,7 +16073,7 @@
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="34" t="s">
         <v>411</v>
       </c>
@@ -14467,7 +16083,7 @@
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="109" t="s">
         <v>279</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -14479,7 +16095,7 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="34" t="s">
         <v>413</v>
       </c>
@@ -14533,21 +16149,21 @@
     <row r="1" spans="1:6" ht="72" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="102"/>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="115" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="72" customHeight="1">
-      <c r="A2" s="114" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="A2" s="116" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="42" t="s">
         <v>184</v>
       </c>
@@ -14557,13 +16173,13 @@
         <v>201</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="121" t="s">
         <v>437</v>
       </c>
-      <c r="C3" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="43" t="s">
         <v>182</v>
       </c>
@@ -14573,91 +16189,91 @@
         <v>10</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="124"/>
+        <v>438</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="153.6" customHeight="1">
       <c r="A5" s="39">
         <v>9</v>
       </c>
-      <c r="B5" s="118" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
+      <c r="B5" s="120" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" ht="114.6" customHeight="1">
       <c r="A6" s="39">
         <v>8</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="122" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="124" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" ht="108.6" customHeight="1">
       <c r="A7" s="39">
         <v>7</v>
       </c>
-      <c r="B7" s="118" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" s="122" t="s">
-        <v>449</v>
-      </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="B7" s="120" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" s="63" customFormat="1" ht="116.4" customHeight="1">
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="122" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="124" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="103"/>
     </row>
     <row r="9" spans="1:6" ht="205.8" customHeight="1">
       <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="118" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="130"/>
+      <c r="B9" s="120" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="141.6" customHeight="1">
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="122" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="124" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="138.6" customHeight="1">
@@ -14665,13 +16281,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" s="122" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
+        <v>442</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" ht="145.19999999999999" customHeight="1">
@@ -14679,13 +16295,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>454</v>
-      </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
+        <v>443</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>453</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="57.6" customHeight="1">
@@ -14693,44 +16309,44 @@
         <v>1</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="122" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
+        <v>444</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="85.8" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="127" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+    </row>
+    <row r="15" spans="1:6" ht="98.4" customHeight="1">
+      <c r="A15" s="127" t="s">
         <v>434</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-    </row>
-    <row r="15" spans="1:6" ht="98.4" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+    </row>
+    <row r="16" spans="1:6" ht="72" customHeight="1">
+      <c r="A16" s="129" t="s">
         <v>435</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-    </row>
-    <row r="16" spans="1:6" ht="72" customHeight="1">
-      <c r="A16" s="127" t="s">
-        <v>436</v>
-      </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -14764,7 +16380,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -14777,21 +16393,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="55.8" customHeight="1" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
     </row>
     <row r="2" spans="1:5" ht="60.6" customHeight="1">
-      <c r="A2" s="144" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="A2" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="34" t="s">
         <v>184</v>
       </c>
@@ -14817,7 +16433,7 @@
       <c r="A4" s="49">
         <v>10</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="148" t="s">
         <v>186</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -14832,7 +16448,7 @@
       <c r="A5" s="52">
         <v>9</v>
       </c>
-      <c r="B5" s="133"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="54" t="s">
         <v>427</v>
       </c>
@@ -14845,11 +16461,11 @@
       <c r="A6" s="52">
         <v>8</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="133" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="136" t="s">
-        <v>428</v>
+      <c r="C6" s="138" t="s">
+        <v>477</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>424</v>
@@ -14860,8 +16476,8 @@
       <c r="A7" s="52">
         <v>7</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="53" t="s">
         <v>421</v>
       </c>
@@ -14871,11 +16487,11 @@
       <c r="A8" s="52">
         <v>6</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="133" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="136" t="s">
-        <v>429</v>
+      <c r="C8" s="138" t="s">
+        <v>428</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>423</v>
@@ -14886,8 +16502,8 @@
       <c r="A9" s="57">
         <v>5</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="137"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="58" t="s">
         <v>422</v>
       </c>
@@ -14897,11 +16513,11 @@
       <c r="A10" s="52">
         <v>4</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="133" t="s">
         <v>418</v>
       </c>
-      <c r="C10" s="138" t="s">
-        <v>430</v>
+      <c r="C10" s="140" t="s">
+        <v>429</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>421</v>
@@ -14912,8 +16528,8 @@
       <c r="A11" s="52">
         <v>3</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="139"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="53" t="s">
         <v>420</v>
       </c>
@@ -14923,8 +16539,8 @@
       <c r="A12" s="52">
         <v>2</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="140"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="58" t="s">
         <v>419</v>
       </c>
@@ -14937,10 +16553,10 @@
       <c r="B13" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="134" t="s">
-        <v>431</v>
-      </c>
-      <c r="D13" s="135"/>
+      <c r="C13" s="136" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="137"/>
       <c r="E13" s="55"/>
     </row>
   </sheetData>
@@ -14984,15 +16600,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="81.599999999999994" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="149" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
       <c r="H2" s="64" t="s">
         <v>310</v>
       </c>
@@ -15024,16 +16640,16 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E4" s="68" t="s">
@@ -15048,10 +16664,10 @@
       <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="68" t="s">
         <v>204</v>
       </c>
@@ -15064,10 +16680,10 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="68" t="s">
         <v>205</v>
       </c>
@@ -15080,10 +16696,10 @@
       <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="68" t="s">
         <v>206</v>
       </c>
@@ -15096,12 +16712,12 @@
       <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="152"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="149" t="s">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -15116,10 +16732,10 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="68" t="s">
         <v>204</v>
       </c>
@@ -15132,10 +16748,10 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="152"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="68" t="s">
         <v>205</v>
       </c>
@@ -15148,10 +16764,10 @@
       <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
       <c r="E11" s="68" t="s">
         <v>206</v>
       </c>
@@ -15164,12 +16780,12 @@
       <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="149" t="s">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E12" s="68" t="s">
@@ -15184,10 +16800,10 @@
       <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="152"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="68" t="s">
         <v>204</v>
       </c>
@@ -15200,10 +16816,10 @@
       <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="152"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="68" t="s">
         <v>205</v>
       </c>
@@ -15216,10 +16832,10 @@
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="152"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="68" t="s">
         <v>206</v>
       </c>
@@ -15232,12 +16848,12 @@
       <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="152"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="149" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E16" s="68" t="s">
@@ -15252,10 +16868,10 @@
       <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="68" t="s">
         <v>204</v>
       </c>
@@ -15268,10 +16884,10 @@
       <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="152"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="68" t="s">
         <v>205</v>
       </c>
@@ -15284,10 +16900,10 @@
       <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="152"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="68" t="s">
         <v>206</v>
       </c>
@@ -15300,8 +16916,8 @@
       <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="153"/>
-      <c r="B20" s="153"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="65" t="s">
         <v>211</v>
       </c>
@@ -15320,16 +16936,16 @@
       <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="149" t="s">
+      <c r="D21" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E21" s="68" t="s">
@@ -15344,10 +16960,10 @@
       <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="152"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="68" t="s">
         <v>204</v>
       </c>
@@ -15360,10 +16976,10 @@
       <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="152"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="68" t="s">
         <v>205</v>
       </c>
@@ -15376,10 +16992,10 @@
       <c r="H23" s="69"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="152"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="68" t="s">
         <v>206</v>
       </c>
@@ -15392,12 +17008,12 @@
       <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="152"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="149" t="s">
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="149" t="s">
+      <c r="D25" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="68" t="s">
@@ -15412,10 +17028,10 @@
       <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="152"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="68" t="s">
         <v>204</v>
       </c>
@@ -15428,10 +17044,10 @@
       <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="152"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
       <c r="E27" s="68" t="s">
         <v>205</v>
       </c>
@@ -15444,10 +17060,10 @@
       <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="152"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="68" t="s">
         <v>206</v>
       </c>
@@ -15460,12 +17076,12 @@
       <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="152"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="149" t="s">
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="149" t="s">
+      <c r="D29" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="68" t="s">
@@ -15480,10 +17096,10 @@
       <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="152"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="68" t="s">
         <v>204</v>
       </c>
@@ -15496,10 +17112,10 @@
       <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="152"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="68" t="s">
         <v>205</v>
       </c>
@@ -15512,10 +17128,10 @@
       <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="152"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
       <c r="E32" s="68" t="s">
         <v>206</v>
       </c>
@@ -15528,12 +17144,12 @@
       <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="152"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="149" t="s">
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E33" s="68" t="s">
@@ -15548,10 +17164,10 @@
       <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="152"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="68" t="s">
         <v>204</v>
       </c>
@@ -15564,10 +17180,10 @@
       <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
       <c r="E35" s="68" t="s">
         <v>205</v>
       </c>
@@ -15580,10 +17196,10 @@
       <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="152"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
       <c r="E36" s="68" t="s">
         <v>206</v>
       </c>
@@ -15596,8 +17212,8 @@
       <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8" ht="30">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="65" t="s">
         <v>211</v>
       </c>
@@ -15616,16 +17232,16 @@
       <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="153" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="149" t="s">
+      <c r="C38" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="149" t="s">
+      <c r="D38" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E38" s="68" t="s">
@@ -15640,10 +17256,10 @@
       <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="68" t="s">
         <v>204</v>
       </c>
@@ -15656,10 +17272,10 @@
       <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="152"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="68" t="s">
         <v>205</v>
       </c>
@@ -15672,10 +17288,10 @@
       <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
       <c r="E41" s="68" t="s">
         <v>206</v>
       </c>
@@ -15688,12 +17304,12 @@
       <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="149" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E42" s="68" t="s">
@@ -15708,10 +17324,10 @@
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="152"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
       <c r="E43" s="68" t="s">
         <v>204</v>
       </c>
@@ -15724,10 +17340,10 @@
       <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="68" t="s">
         <v>205</v>
       </c>
@@ -15740,10 +17356,10 @@
       <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="152"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
       <c r="E45" s="68" t="s">
         <v>206</v>
       </c>
@@ -15756,12 +17372,12 @@
       <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="152"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="149" t="s">
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="149" t="s">
+      <c r="D46" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E46" s="68" t="s">
@@ -15776,10 +17392,10 @@
       <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="152"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
       <c r="E47" s="68" t="s">
         <v>204</v>
       </c>
@@ -15792,10 +17408,10 @@
       <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="152"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="68" t="s">
         <v>205</v>
       </c>
@@ -15808,10 +17424,10 @@
       <c r="H48" s="69"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="152"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
       <c r="E49" s="68" t="s">
         <v>206</v>
       </c>
@@ -15824,12 +17440,12 @@
       <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="149" t="s">
+      <c r="A50" s="154"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E50" s="68" t="s">
@@ -15844,10 +17460,10 @@
       <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="68" t="s">
         <v>204</v>
       </c>
@@ -15860,10 +17476,10 @@
       <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="152"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="68" t="s">
         <v>205</v>
       </c>
@@ -15876,10 +17492,10 @@
       <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="152"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
       <c r="E53" s="68" t="s">
         <v>206</v>
       </c>
@@ -15892,8 +17508,8 @@
       <c r="H53" s="69"/>
     </row>
     <row r="54" spans="1:8" ht="30">
-      <c r="A54" s="153"/>
-      <c r="B54" s="153"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="65" t="s">
         <v>211</v>
       </c>
@@ -15912,16 +17528,16 @@
       <c r="H54" s="69"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="C55" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="149" t="s">
+      <c r="D55" s="151" t="s">
         <v>196</v>
       </c>
       <c r="E55" s="68" t="s">
@@ -15936,10 +17552,10 @@
       <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="152"/>
-      <c r="B56" s="152"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="68" t="s">
         <v>204</v>
       </c>
@@ -15952,10 +17568,10 @@
       <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="152"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="68" t="s">
         <v>205</v>
       </c>
@@ -15968,10 +17584,10 @@
       <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="152"/>
-      <c r="B58" s="152"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="150"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="68" t="s">
         <v>206</v>
       </c>
@@ -15984,12 +17600,12 @@
       <c r="H58" s="69"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="152"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="149" t="s">
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="149" t="s">
+      <c r="D59" s="151" t="s">
         <v>197</v>
       </c>
       <c r="E59" s="68" t="s">
@@ -16004,10 +17620,10 @@
       <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="152"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="150"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
       <c r="E60" s="68" t="s">
         <v>204</v>
       </c>
@@ -16020,10 +17636,10 @@
       <c r="H60" s="69"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="152"/>
-      <c r="B61" s="152"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
       <c r="E61" s="68" t="s">
         <v>205</v>
       </c>
@@ -16036,10 +17652,10 @@
       <c r="H61" s="69"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="152"/>
-      <c r="B62" s="152"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="150"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="68" t="s">
         <v>206</v>
       </c>
@@ -16052,12 +17668,12 @@
       <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="152"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="149" t="s">
+      <c r="A63" s="154"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="151" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="149" t="s">
+      <c r="D63" s="151" t="s">
         <v>193</v>
       </c>
       <c r="E63" s="68" t="s">
@@ -16072,10 +17688,10 @@
       <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="152"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="68" t="s">
         <v>204</v>
       </c>
@@ -16088,10 +17704,10 @@
       <c r="H64" s="69"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="150"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="68" t="s">
         <v>205</v>
       </c>
@@ -16104,10 +17720,10 @@
       <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="152"/>
       <c r="E66" s="68" t="s">
         <v>206</v>
       </c>
@@ -16120,12 +17736,12 @@
       <c r="H66" s="69"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="149" t="s">
+      <c r="A67" s="154"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="151" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="68" t="s">
@@ -16140,10 +17756,10 @@
       <c r="H67" s="69"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="152"/>
-      <c r="B68" s="152"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
       <c r="E68" s="68" t="s">
         <v>204</v>
       </c>
@@ -16156,10 +17772,10 @@
       <c r="H68" s="69"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="152"/>
-      <c r="B69" s="152"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="150"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
       <c r="E69" s="68" t="s">
         <v>205</v>
       </c>
@@ -16172,10 +17788,10 @@
       <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="150"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="68" t="s">
         <v>206</v>
       </c>
@@ -16188,8 +17804,8 @@
       <c r="H70" s="69"/>
     </row>
     <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="153"/>
-      <c r="B71" s="153"/>
+      <c r="A71" s="155"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="65" t="s">
         <v>211</v>
       </c>
@@ -16300,11 +17916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845563C2-BD07-4630-A9AA-785BBBAC207A}">
   <dimension ref="A2:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="10" width="28.77734375" style="1" customWidth="1"/>
@@ -16335,7 +17951,7 @@
     </row>
     <row r="4" spans="1:31" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="3"/>
     </row>
@@ -16401,7 +18017,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>232</v>
@@ -16414,49 +18030,49 @@
       </c>
     </row>
     <row r="10" spans="1:31" ht="47.4" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="104" t="s">
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="104" t="s">
+      <c r="L10" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="104" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="106"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="134.4" thickBot="1">
+    <row r="11" spans="1:31" ht="133.80000000000001" thickBot="1">
       <c r="A11" s="28" t="s">
         <v>174</v>
       </c>
@@ -16473,7 +18089,7 @@
         <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>237</v>
@@ -16538,8 +18154,8 @@
       <c r="AA11" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="AB11" s="167" t="s">
-        <v>456</v>
+      <c r="AB11" s="105" t="s">
+        <v>455</v>
       </c>
       <c r="AC11" s="5" t="s">
         <v>175</v>
@@ -16958,7 +18574,7 @@
         <v>25</v>
       </c>
       <c r="AB16" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
@@ -17063,23 +18679,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="41.4" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6" ht="69.599999999999994">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="30" t="s">
         <v>177</v>
       </c>
@@ -17108,7 +18724,7 @@
       <c r="A4" s="33">
         <v>10</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="157" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="76" t="s">
@@ -17126,7 +18742,7 @@
       <c r="A5" s="36">
         <v>9</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="76" t="s">
         <v>263</v>
       </c>
@@ -17142,7 +18758,7 @@
       <c r="A6" s="38">
         <v>8</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="157" t="s">
         <v>313</v>
       </c>
       <c r="C6" s="76" t="s">
@@ -17160,7 +18776,7 @@
       <c r="A7" s="30">
         <v>7</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="76" t="s">
         <v>282</v>
       </c>
@@ -17176,7 +18792,7 @@
       <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="157" t="s">
         <v>314</v>
       </c>
       <c r="C8" s="76" t="s">
@@ -17194,7 +18810,7 @@
       <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="76" t="s">
         <v>269</v>
       </c>
@@ -17210,7 +18826,7 @@
       <c r="A10" s="39">
         <v>4</v>
       </c>
-      <c r="B10" s="111"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="76" t="s">
         <v>271</v>
       </c>
@@ -17226,7 +18842,7 @@
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="157" t="s">
         <v>279</v>
       </c>
       <c r="C11" s="76" t="s">
@@ -17244,7 +18860,7 @@
       <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="76" t="s">
         <v>317</v>
       </c>
